--- a/TA buku/Results/Calculation/dp-glove.xlsx
+++ b/TA buku/Results/Calculation/dp-glove.xlsx
@@ -432,28 +432,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C2">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="D2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E2">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="F2">
-        <v>0.64</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G2">
-        <v>0.76</v>
+        <v>0.68</v>
       </c>
       <c r="H2">
-        <v>0.6899999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="I2">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -461,28 +461,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C3">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="D3">
         <v>44</v>
       </c>
       <c r="E3">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F3">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="G3">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="H3">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
       <c r="I3">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -490,28 +490,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C4">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F4">
-        <v>0.73</v>
+        <v>0.71</v>
       </c>
       <c r="G4">
-        <v>0.76</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H4">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="I4">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -522,25 +522,25 @@
         <v>61</v>
       </c>
       <c r="C5">
-        <v>146</v>
+        <v>189</v>
       </c>
       <c r="D5">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>69</v>
       </c>
       <c r="F5">
-        <v>0.55</v>
+        <v>0.61</v>
       </c>
       <c r="G5">
         <v>0.47</v>
       </c>
       <c r="H5">
-        <v>0.51</v>
+        <v>0.53</v>
       </c>
       <c r="I5">
-        <v>0.64</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
